--- a/biology/Médecine/Maladie_de_Krabbe/Maladie_de_Krabbe.xlsx
+++ b/biology/Médecine/Maladie_de_Krabbe/Maladie_de_Krabbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La maladie de Krabbe est une leucodystrophie provoquée par une maladie de surcharge lysosomale, décrite pour la première fois en 1916 par le docteur Knud Krabbe (3 mars 1885 – 8 mai 1961), neurologue danois[2] .
+La maladie de Krabbe est une leucodystrophie provoquée par une maladie de surcharge lysosomale, décrite pour la première fois en 1916 par le docteur Knud Krabbe (3 mars 1885 – 8 mai 1961), neurologue danois .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une leucodystrophie secondaire à un trouble de la dégradation d'un constituant lipidique majeur de la myéline, le galactocérébroside. L'enzyme galactocérébrosidase située dans les lysosomes des cellules de la myéline, dégradant le galactocérébroside, sera anormalement non-fonctionnelle. La conséquence directe sera la surchage lysosomale provoquant la destruction des cellules.
 Les mutations du gène GALC provoquent la maladie de Krabbe. Ce gène fournit des instructions pour fabriquer une enzyme appelée galactosylcéramidase, qui décompose certaines graisses appelées galactolipides. Un galactolipide décomposé par la galactosylcéramidase, appelé galactosylcéramide, est un composant important de la myéline. La décomposition du galactosylcéramide fait partie du renouvellement normal de la myéline qui se produit tout au long de la vie. Un autre galactolipide, appelé psychosine, qui se forme lors de la production de myéline, est toxique s'il n'est pas décomposé par la galactosylcéramidase.
@@ -545,7 +559,9 @@
           <t>Caractéristiques de la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le plus souvent (85 à 90 % des cas), la maladie débute dès les premiers mois de vie et entraîne le décès avant deux ans : les premiers signes sont une irritabilité importante de l'enfant, des contractures musculaires et arrêt du développement. Les troubles de l'alimentation sont importants. Les troubles toniques aboutissent à une authentique décérébration avec absence totale de mouvement volontaire. Le décès est souvent secondaire à des problèmes infectieux.
 Plus rarement, la maladie de Krabbe débute dans l'enfance, l'adolescence ou l'âge adulte (formes tardives). Les problèmes de vision et les difficultés à marcher sont les premiers symptômes les plus courants de ces formes de trouble, cependant, les signes et les symptômes varient considérablement selon les personnes touchées. Les personnes atteintes de la maladie de Krabbe d'apparition tardive peuvent survivre de nombreuses années après le début de la maladie
@@ -577,7 +593,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette condition est héritée d'un schéma récessif autosomique, ce qui signifie que les deux copies du gène dans chaque cellule ont des mutations. Les parents d'un individu ayant une maladie autosomique récessive portent chacun une copie du gène muté, mais ils ne présentent généralement pas de signes et de symptômes de la maladie.
 </t>
@@ -608,9 +626,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement repose sur une transplantation de moelle dans l'idée d'un apport en galactocérébrosides leucocytaires. Cette transplantation entraîne une amélioration des signes neurologiques[3]. Elle peut être faite également en utilisant des cellules souches du cordon ombilical d'un donneur compatible et sain, chez le nourrisson. Les résultats ne sont toutefois pas probants dans ce cas s'il existe déjà des symptômes neurologiques[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement repose sur une transplantation de moelle dans l'idée d'un apport en galactocérébrosides leucocytaires. Cette transplantation entraîne une amélioration des signes neurologiques. Elle peut être faite également en utilisant des cellules souches du cordon ombilical d'un donneur compatible et sain, chez le nourrisson. Les résultats ne sont toutefois pas probants dans ce cas s'il existe déjà des symptômes neurologiques.
 </t>
         </is>
       </c>
